--- a/telecom prediction column list.xlsx
+++ b/telecom prediction column list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="525">
   <si>
     <t>['mobile_number',</t>
   </si>
@@ -1384,13 +1384,220 @@
   </si>
   <si>
     <t xml:space="preserve"> last_day_recharge_Amount in local currency_month9</t>
+  </si>
+  <si>
+    <t>max_recharge internet_month6</t>
+  </si>
+  <si>
+    <t>max_recharge internet_month7</t>
+  </si>
+  <si>
+    <t>max_recharge internet_month8</t>
+  </si>
+  <si>
+    <t>max_recharge internet_month9</t>
+  </si>
+  <si>
+    <t>noumber  of recharge 2g month6</t>
+  </si>
+  <si>
+    <t>noumber  of recharge 2g month7</t>
+  </si>
+  <si>
+    <t>noumber  of recharge 2g month8</t>
+  </si>
+  <si>
+    <t>noumber  of recharge 2g month9</t>
+  </si>
+  <si>
+    <t>noumber  of recharge 3g month6</t>
+  </si>
+  <si>
+    <t>noumber  of recharge 3g month7</t>
+  </si>
+  <si>
+    <t>noumber  of recharge 3g month8</t>
+  </si>
+  <si>
+    <t>noumber  of recharge 3g month9</t>
+  </si>
+  <si>
+    <t>total _recharge internet_month6</t>
+  </si>
+  <si>
+    <t>total _recharge internet_month7</t>
+  </si>
+  <si>
+    <t>total _recharge internet_month8</t>
+  </si>
+  <si>
+    <t>total _recharge internet_month9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> last_day_recharge_ internet_month6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> last_day_recharge_ internet_month7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> last_day_recharge_ internet_month8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> last_day_recharge_ internet_month9</t>
+  </si>
+  <si>
+    <t>average recharge amount data month6</t>
+  </si>
+  <si>
+    <t>average recharge amount data month7</t>
+  </si>
+  <si>
+    <t>average recharge amount data month8</t>
+  </si>
+  <si>
+    <t>average recharge amount data month9</t>
+  </si>
+  <si>
+    <t>volume usage volume internet en megabit sur reseau 2gmonth6</t>
+  </si>
+  <si>
+    <t>volume usage volume internet en megabit sur reseau 2gmonth7</t>
+  </si>
+  <si>
+    <t>volume usage volume internet en megabit sur reseau 2gmonth8</t>
+  </si>
+  <si>
+    <t>volume usage volume internet en megabit sur reseau 2gmonth9</t>
+  </si>
+  <si>
+    <t>volume usage volume internet en megabit sur reseau 3gmonth6</t>
+  </si>
+  <si>
+    <t>volume usage volume internet en megabit sur reseau 3gmonth7</t>
+  </si>
+  <si>
+    <t>volume usage volume internet en megabit sur reseau 3gmonth8</t>
+  </si>
+  <si>
+    <t>volume usage volume internet en megabit sur reseau 3gmonth9</t>
+  </si>
+  <si>
+    <t>Average revenue per user 3g month6</t>
+  </si>
+  <si>
+    <t>Average revenue per user 3g month7</t>
+  </si>
+  <si>
+    <t>Average revenue per user 3g month8</t>
+  </si>
+  <si>
+    <t>Average revenue per user 3g month9</t>
+  </si>
+  <si>
+    <t>Average revenue per user 2g month6</t>
+  </si>
+  <si>
+    <t>Average revenue per user 2g month7</t>
+  </si>
+  <si>
+    <t>Average revenue per user 2g month8</t>
+  </si>
+  <si>
+    <t>Average revenue per user 2g month9</t>
+  </si>
+  <si>
+    <t>Scheme to use during specific night hours only_Prepaid service schemes called - PACKS_for user month6</t>
+  </si>
+  <si>
+    <t>Scheme to use during specific night hours only_Prepaid service schemes called - PACKS_for user month7</t>
+  </si>
+  <si>
+    <t>Scheme to use during specific night hours only_Prepaid service schemes called - PACKS_for user month8</t>
+  </si>
+  <si>
+    <t>Scheme to use during specific night hours only_Prepaid service schemes called - PACKS_for user month9</t>
+  </si>
+  <si>
+    <t>Service schemes with validity smaller than a month for 2g in month 6</t>
+  </si>
+  <si>
+    <t>Service schemes with validity smaller than a month for 2g in month 7</t>
+  </si>
+  <si>
+    <t>Service schemes with validity smaller than a month for 2g in month 8</t>
+  </si>
+  <si>
+    <t>Service schemes with validity smaller than a month for 2g in month 9</t>
+  </si>
+  <si>
+    <t>Service schemes with validity smaller than a month for 3g in month 6</t>
+  </si>
+  <si>
+    <t>Service schemes with validity smaller than a month for 3g in month 7</t>
+  </si>
+  <si>
+    <t>Service schemes with validity smaller than a month for 3g in month 8</t>
+  </si>
+  <si>
+    <t>Service schemes with validity smaller than a month for 3g in month 9</t>
+  </si>
+  <si>
+    <t>Service scheme to avail services of Facebook and similar social networking sites_month 6</t>
+  </si>
+  <si>
+    <t>Service scheme to avail services of Facebook and similar social networking sites_month 7</t>
+  </si>
+  <si>
+    <t>Service scheme to avail services of Facebook and similar social networking sites_month 8</t>
+  </si>
+  <si>
+    <t>Service scheme to avail services of Facebook and similar social networking sites_month 9</t>
+  </si>
+  <si>
+    <t>Volume based cost - when no specific scheme is not purchased and paid as per usage month6</t>
+  </si>
+  <si>
+    <t>Volume based cost - when no specific scheme is not purchased and paid as per usage month7</t>
+  </si>
+  <si>
+    <t>Volume based cost - when no specific scheme is not purchased and paid as per usage month8</t>
+  </si>
+  <si>
+    <t>Volume based cost - when no specific scheme is not purchased and paid as per usage month9</t>
+  </si>
+  <si>
+    <t>monthly use of 2g network in month6</t>
+  </si>
+  <si>
+    <t>monthly use of 2g network in month7</t>
+  </si>
+  <si>
+    <t>monthly use of 2g network in month8</t>
+  </si>
+  <si>
+    <t>monthly use of 2g network in month9</t>
+  </si>
+  <si>
+    <t>monthly use of 3g network in month6</t>
+  </si>
+  <si>
+    <t>monthly use of 3g network in month7</t>
+  </si>
+  <si>
+    <t>monthly use of 3g network in month8</t>
+  </si>
+  <si>
+    <t>monthly use of 3g network in month9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EXPLANATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1415,8 +1622,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1441,8 +1654,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1626,26 +1845,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1661,6 +1925,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1959,15 +2239,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220:C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="108.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
@@ -1979,2355 +2259,2499 @@
       <c r="B2" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="18" t="s">
+        <v>524</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="19" t="s">
         <v>226</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="20" t="s">
         <v>227</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="11" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>306</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>305</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>307</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="21">
+        <v>30</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="21">
+        <v>31</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="21">
+        <v>31</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="21">
+        <v>30</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>308</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>309</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>310</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="11" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>311</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.75">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>312</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>314</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="11" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>315</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="6" t="s">
         <v>316</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="11" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>317</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="6" t="s">
         <v>318</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="11" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>319</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="11" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="6" t="s">
         <v>320</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="11" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="6" t="s">
         <v>313</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.75">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>321</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="11" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.75">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>322</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="11" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.75">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="6" t="s">
         <v>323</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="11" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="6" t="s">
         <v>324</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="12" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>325</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="11" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="6" t="s">
         <v>326</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="11" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.75">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="6" t="s">
         <v>327</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="11" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.75">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="6" t="s">
         <v>328</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="11" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="6" t="s">
         <v>329</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="11" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>330</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="11" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="6" t="s">
         <v>331</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="11" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="6" t="s">
         <v>332</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="11" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="6" t="s">
         <v>333</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="6" t="s">
         <v>334</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="11" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="6" t="s">
         <v>335</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="11" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="16.5" thickBot="1">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="6" t="s">
         <v>336</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="14" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.75">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="6" t="s">
         <v>337</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:7" ht="15.75">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="6" t="s">
         <v>338</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:7" ht="15.75">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="6" t="s">
         <v>339</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:7" ht="15.75">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="6" t="s">
         <v>340</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="2:7" ht="15.75">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="6" t="s">
         <v>341</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="2:7" ht="15.75">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="6" t="s">
         <v>342</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="2:7" ht="15.75">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="6" t="s">
         <v>343</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="2:7" ht="15.75">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="6" t="s">
         <v>344</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:5" ht="15.75">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="6" t="s">
         <v>345</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="2:5" ht="15.75">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="6" t="s">
         <v>346</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="2:5" ht="15.75">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="6" t="s">
         <v>347</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="2:5" ht="15.75">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="6" t="s">
         <v>348</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="2:5" ht="15.75">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="6" t="s">
         <v>349</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="2:5" ht="15.75">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="6" t="s">
         <v>350</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="2:5" ht="15.75">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="2:5" ht="15.75">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="6" t="s">
         <v>352</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="2:5" ht="15.75">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="6" t="s">
         <v>353</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="2:5" ht="15.75">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="6" t="s">
         <v>354</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="2:5" ht="15.75">
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="6" t="s">
         <v>355</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="2:5" ht="15.75">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="6" t="s">
         <v>356</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="2:5" ht="15.75">
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="6" t="s">
         <v>357</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="2:5" ht="15.75">
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="6" t="s">
         <v>358</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="2:5" ht="15.75">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="6" t="s">
         <v>359</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="2:5" ht="15.75">
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="6" t="s">
         <v>360</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="2:5" ht="15.75">
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="6" t="s">
         <v>361</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="2:5" ht="15.75">
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="6" t="s">
         <v>362</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="2:5" ht="15.75">
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="6" t="s">
         <v>363</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="2:5" ht="15.75">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="6" t="s">
         <v>364</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="2:5" ht="15.75">
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="6" t="s">
         <v>365</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="2:5" ht="15.75">
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="6" t="s">
         <v>366</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="2:5" ht="15.75">
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="6" t="s">
         <v>367</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="2:5" ht="15.75">
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="6" t="s">
         <v>368</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="2:5" ht="15.75">
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="6" t="s">
         <v>369</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="2:5" ht="15.75">
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="6" t="s">
         <v>370</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="2:5" ht="15.75">
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="6" t="s">
         <v>371</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="2:5" ht="15.75">
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="6" t="s">
         <v>372</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="2:5" ht="15.75">
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="6" t="s">
         <v>373</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="2:5" ht="15.75">
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="6" t="s">
         <v>374</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="2:5" ht="15.75">
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="6" t="s">
         <v>375</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="2:5" ht="15.75">
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="6" t="s">
         <v>376</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="2:5" ht="15.75">
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="6" t="s">
         <v>377</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="2:5" ht="15.75">
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="6" t="s">
         <v>378</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="2:5" ht="15.75">
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="6" t="s">
         <v>379</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="2:5" ht="15.75">
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="6" t="s">
         <v>380</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="2:5" ht="15.75">
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="6" t="s">
         <v>381</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="2:5" ht="15.75">
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="6" t="s">
         <v>382</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="2:5" ht="15.75">
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="6" t="s">
         <v>383</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="2:5" ht="15.75">
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="6" t="s">
         <v>384</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="2:5" ht="15.75">
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="6" t="s">
         <v>385</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="2:5" ht="15.75">
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="6" t="s">
         <v>386</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="2:5" ht="15.75">
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="6" t="s">
         <v>387</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="2:5" ht="15.75">
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="6" t="s">
         <v>388</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="2:5" ht="15.75">
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="6" t="s">
         <v>389</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="2:5" ht="15.75">
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="6" t="s">
         <v>390</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="2:5" ht="15.75">
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="6" t="s">
         <v>391</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="2:5" ht="15.75">
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="6" t="s">
         <v>392</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="2:5" ht="15.75">
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="6" t="s">
         <v>393</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="2:5" ht="15.75">
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="6" t="s">
         <v>394</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="2:5" ht="15.75">
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="6" t="s">
         <v>395</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="2:5" ht="15.75">
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="6" t="s">
         <v>396</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="2:5" ht="15.75">
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="6" t="s">
         <v>397</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="2:5" ht="15.75">
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="6" t="s">
         <v>398</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="2:5" ht="15.75">
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="6" t="s">
         <v>399</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="2:5" ht="15.75">
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="6" t="s">
         <v>400</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="2:5" ht="15.75">
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="6" t="s">
         <v>401</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="2:5" ht="15.75">
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="6" t="s">
         <v>402</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="2:5" ht="15.75">
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="6" t="s">
         <v>403</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="2:5" ht="15.75">
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="6" t="s">
         <v>404</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="2:5" ht="15.75">
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="6" t="s">
         <v>405</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="2:5" ht="15.75">
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="6" t="s">
         <v>406</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="2:5" ht="15.75">
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="6" t="s">
         <v>407</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="2:5" ht="15.75">
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="6" t="s">
         <v>408</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="2:5" ht="15.75">
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="6" t="s">
         <v>409</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="2:5" ht="15.75">
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="6" t="s">
         <v>410</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="2:5" ht="15.75">
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="6" t="s">
         <v>411</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="2:5" ht="15.75">
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="6" t="s">
         <v>412</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="2:5" ht="15.75">
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="6" t="s">
         <v>413</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="2:5" ht="15.75">
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="6" t="s">
         <v>414</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="2:5" ht="15.75">
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="6" t="s">
         <v>415</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="2:5" ht="15.75">
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="6" t="s">
         <v>416</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="2:5" ht="15.75">
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="6" t="s">
         <v>417</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="2:5" ht="15.75">
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="6" t="s">
         <v>418</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="2:5" ht="15.75">
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="6" t="s">
         <v>419</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="2:5" ht="15.75">
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="6" t="s">
         <v>420</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="2:5" ht="15.75">
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="6" t="s">
         <v>421</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="2:5" ht="15.75">
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="6" t="s">
         <v>422</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="2:5" ht="15.75">
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="6" t="s">
         <v>423</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="2:5" ht="15.75">
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="6" t="s">
         <v>424</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="2:5" ht="15.75">
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="6" t="s">
         <v>425</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="2:5" ht="15.75">
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="6" t="s">
         <v>426</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="2:5" ht="15.75">
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="6" t="s">
         <v>427</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="2:5" ht="15.75">
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="6" t="s">
         <v>432</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="2:5" ht="15.75">
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="6" t="s">
         <v>433</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
     <row r="134" spans="2:5" ht="15.75">
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="6" t="s">
         <v>434</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="2:5" ht="15.75">
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="6" t="s">
         <v>435</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="2:5" ht="15.75">
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="6" t="s">
         <v>428</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
     <row r="137" spans="2:5" ht="15.75">
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="6" t="s">
         <v>429</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="2:5" ht="15.75">
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="6" t="s">
         <v>430</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
     <row r="139" spans="2:5" ht="15.75">
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="6" t="s">
         <v>431</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="2:5" ht="15.75">
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="6" t="s">
         <v>436</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
     <row r="141" spans="2:5" ht="15.75">
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="6" t="s">
         <v>437</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
     <row r="142" spans="2:5" ht="15.75">
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="6" t="s">
         <v>438</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="2:5" ht="15.75">
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="6" t="s">
         <v>439</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="2:5" ht="15.75">
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="6" t="s">
         <v>440</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
     <row r="145" spans="2:5" ht="15.75">
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="6" t="s">
         <v>441</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="2:5" ht="15.75">
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="6" t="s">
         <v>442</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
     <row r="147" spans="2:5" ht="15.75">
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="6" t="s">
         <v>443</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
     <row r="148" spans="2:5" ht="15.75">
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="6" t="s">
         <v>444</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="2:5" ht="15.75">
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="6" t="s">
         <v>445</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="2:5" ht="15.75">
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="6" t="s">
         <v>446</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="2:5" ht="15.75">
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="6" t="s">
         <v>447</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="2:5" ht="15.75">
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="6" t="s">
         <v>448</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
     <row r="153" spans="2:5" ht="15.75">
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="6" t="s">
         <v>449</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
     <row r="154" spans="2:5" ht="15.75">
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="6" t="s">
         <v>450</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="2:5" ht="15.75">
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="6" t="s">
         <v>451</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
     <row r="156" spans="2:5" ht="15.75">
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="6" t="s">
         <v>452</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="2:5" ht="15.75">
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="6" t="s">
         <v>453</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="2:5" ht="15.75">
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="6" t="s">
         <v>454</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="2:5" ht="15.75">
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="6" t="s">
         <v>455</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="2:5" ht="15.75">
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C160" s="1"/>
+      <c r="C160" s="6" t="s">
+        <v>472</v>
+      </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="2:5" ht="15.75">
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C161" s="1"/>
+      <c r="C161" s="6" t="s">
+        <v>473</v>
+      </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
     <row r="162" spans="2:5" ht="15.75">
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C162" s="1"/>
+      <c r="C162" s="6" t="s">
+        <v>474</v>
+      </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
     <row r="163" spans="2:5" ht="15.75">
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C163" s="1"/>
+      <c r="C163" s="6" t="s">
+        <v>475</v>
+      </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
     <row r="164" spans="2:5" ht="15.75">
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C164" s="1"/>
+      <c r="C164" s="6" t="s">
+        <v>468</v>
+      </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="2:5" ht="15.75">
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C165" s="1"/>
+      <c r="C165" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="2:5" ht="15.75">
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C166" s="1"/>
+      <c r="C166" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="2:5" ht="15.75">
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C167" s="1"/>
+      <c r="C167" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="2:5" ht="15.75">
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C168" s="1"/>
+      <c r="C168" s="6" t="s">
+        <v>456</v>
+      </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
     <row r="169" spans="2:5" ht="15.75">
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C169" s="1"/>
+      <c r="C169" s="6" t="s">
+        <v>457</v>
+      </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="2:5" ht="15.75">
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C170" s="1"/>
+      <c r="C170" s="6" t="s">
+        <v>458</v>
+      </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
     <row r="171" spans="2:5" ht="15.75">
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="1"/>
+      <c r="C171" s="6" t="s">
+        <v>459</v>
+      </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
     <row r="172" spans="2:5" ht="15.75">
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C172" s="1"/>
+      <c r="C172" s="6" t="s">
+        <v>460</v>
+      </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="2:5" ht="15.75">
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C173" s="1"/>
+      <c r="C173" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="2:5" ht="15.75">
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C174" s="1"/>
+      <c r="C174" s="6" t="s">
+        <v>462</v>
+      </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="2:5" ht="15.75">
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C175" s="1"/>
+      <c r="C175" s="6" t="s">
+        <v>463</v>
+      </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="2:5" ht="15.75">
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C176" s="1"/>
+      <c r="C176" s="6" t="s">
+        <v>464</v>
+      </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
     <row r="177" spans="2:5" ht="15.75">
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="1"/>
+      <c r="C177" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
     <row r="178" spans="2:5" ht="15.75">
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C178" s="1"/>
+      <c r="C178" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
     <row r="179" spans="2:5" ht="15.75">
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C179" s="1"/>
+      <c r="C179" s="6" t="s">
+        <v>467</v>
+      </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
     <row r="180" spans="2:5" ht="15.75">
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C180" s="1"/>
+      <c r="C180" s="6" t="s">
+        <v>476</v>
+      </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
     <row r="181" spans="2:5" ht="15.75">
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C181" s="1"/>
+      <c r="C181" s="6" t="s">
+        <v>477</v>
+      </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
     <row r="182" spans="2:5" ht="15.75">
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C182" s="1"/>
+      <c r="C182" s="6" t="s">
+        <v>478</v>
+      </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
     <row r="183" spans="2:5" ht="15.75">
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C183" s="1"/>
+      <c r="C183" s="6" t="s">
+        <v>479</v>
+      </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="2:5" ht="15.75">
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C184" s="1"/>
+      <c r="C184" s="6" t="s">
+        <v>480</v>
+      </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
     <row r="185" spans="2:5" ht="15.75">
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C185" s="1"/>
+      <c r="C185" s="6" t="s">
+        <v>481</v>
+      </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="2:5" ht="15.75">
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C186" s="1"/>
+      <c r="C186" s="6" t="s">
+        <v>482</v>
+      </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
     <row r="187" spans="2:5" ht="15.75">
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C187" s="1"/>
+      <c r="C187" s="6" t="s">
+        <v>483</v>
+      </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
     <row r="188" spans="2:5" ht="15.75">
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C188" s="1"/>
+      <c r="C188" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
     <row r="189" spans="2:5" ht="15.75">
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C189" s="1"/>
+      <c r="C189" s="6" t="s">
+        <v>485</v>
+      </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
     <row r="190" spans="2:5" ht="15.75">
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C190" s="1"/>
+      <c r="C190" s="6" t="s">
+        <v>486</v>
+      </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
     <row r="191" spans="2:5" ht="15.75">
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C191" s="1"/>
+      <c r="C191" s="6" t="s">
+        <v>487</v>
+      </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
     <row r="192" spans="2:5" ht="15.75">
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C192" s="1"/>
+      <c r="C192" s="6" t="s">
+        <v>488</v>
+      </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
     <row r="193" spans="2:5" ht="15.75">
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C193" s="1"/>
+      <c r="C193" s="6" t="s">
+        <v>489</v>
+      </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
     <row r="194" spans="2:5" ht="15.75">
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C194" s="1"/>
+      <c r="C194" s="6" t="s">
+        <v>490</v>
+      </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
     <row r="195" spans="2:5" ht="15.75">
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C195" s="1"/>
+      <c r="C195" s="6" t="s">
+        <v>491</v>
+      </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
     <row r="196" spans="2:5" ht="15.75">
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C196" s="1"/>
+      <c r="C196" s="6" t="s">
+        <v>492</v>
+      </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
     <row r="197" spans="2:5" ht="15.75">
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C197" s="1"/>
+      <c r="C197" s="6" t="s">
+        <v>493</v>
+      </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
     <row r="198" spans="2:5" ht="15.75">
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C198" s="1"/>
+      <c r="C198" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
     <row r="199" spans="2:5" ht="15.75">
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C199" s="1"/>
+      <c r="C199" s="6" t="s">
+        <v>495</v>
+      </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="2:5" ht="15.75">
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C200" s="1"/>
+      <c r="C200" s="6" t="s">
+        <v>496</v>
+      </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
     <row r="201" spans="2:5" ht="15.75">
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C201" s="1"/>
+      <c r="C201" s="6" t="s">
+        <v>497</v>
+      </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
     <row r="202" spans="2:5" ht="15.75">
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C202" s="1"/>
+      <c r="C202" s="6" t="s">
+        <v>498</v>
+      </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
     <row r="203" spans="2:5" ht="15.75">
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C203" s="1"/>
+      <c r="C203" s="6" t="s">
+        <v>499</v>
+      </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
     <row r="204" spans="2:5" ht="15.75">
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C204" s="1"/>
+      <c r="C204" s="6" t="s">
+        <v>516</v>
+      </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
     <row r="205" spans="2:5" ht="15.75">
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C205" s="1"/>
+      <c r="C205" s="6" t="s">
+        <v>517</v>
+      </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
     <row r="206" spans="2:5" ht="15.75">
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C206" s="1"/>
+      <c r="C206" s="6" t="s">
+        <v>518</v>
+      </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
     <row r="207" spans="2:5" ht="15.75">
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C207" s="1"/>
+      <c r="C207" s="6" t="s">
+        <v>519</v>
+      </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
     <row r="208" spans="2:5" ht="15.75">
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C208" s="1"/>
+      <c r="C208" s="6" t="s">
+        <v>500</v>
+      </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
     <row r="209" spans="2:5" ht="15.75">
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C209" s="1"/>
+      <c r="C209" s="6" t="s">
+        <v>501</v>
+      </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
     <row r="210" spans="2:5" ht="15.75">
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C210" s="1"/>
+      <c r="C210" s="6" t="s">
+        <v>502</v>
+      </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
     <row r="211" spans="2:5" ht="15.75">
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C211" s="1"/>
+      <c r="C211" s="6" t="s">
+        <v>503</v>
+      </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
     <row r="212" spans="2:5" ht="15.75">
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
+      <c r="C212" s="6" t="s">
+        <v>520</v>
+      </c>
       <c r="E212" s="1"/>
     </row>
     <row r="213" spans="2:5" ht="15.75">
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
+      <c r="C213" s="6" t="s">
+        <v>521</v>
+      </c>
       <c r="E213" s="1"/>
     </row>
     <row r="214" spans="2:5" ht="15.75">
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
+      <c r="C214" s="6" t="s">
+        <v>522</v>
+      </c>
       <c r="E214" s="1"/>
     </row>
     <row r="215" spans="2:5" ht="15.75">
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
+      <c r="C215" s="6" t="s">
+        <v>523</v>
+      </c>
       <c r="E215" s="1"/>
     </row>
     <row r="216" spans="2:5" ht="15.75">
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C216" s="1"/>
+      <c r="C216" s="6" t="s">
+        <v>504</v>
+      </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
     <row r="217" spans="2:5" ht="15.75">
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C217" s="1"/>
+      <c r="C217" s="6" t="s">
+        <v>505</v>
+      </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
     <row r="218" spans="2:5" ht="15.75">
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C218" s="1"/>
+      <c r="C218" s="6" t="s">
+        <v>506</v>
+      </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
     <row r="219" spans="2:5" ht="15.75">
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C219" s="1"/>
+      <c r="C219" s="6" t="s">
+        <v>507</v>
+      </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
     <row r="220" spans="2:5" ht="15.75">
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C220" s="1"/>
+      <c r="C220" s="22" t="s">
+        <v>508</v>
+      </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
     <row r="221" spans="2:5" ht="15.75">
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C221" s="1"/>
+      <c r="C221" s="22" t="s">
+        <v>509</v>
+      </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
     <row r="222" spans="2:5" ht="15.75">
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C222" s="1"/>
+      <c r="C222" s="22" t="s">
+        <v>510</v>
+      </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
     <row r="223" spans="2:5" ht="15.75">
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C223" s="1"/>
+      <c r="C223" s="22" t="s">
+        <v>511</v>
+      </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
     <row r="224" spans="2:5" ht="15.75">
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C224" s="1"/>
+      <c r="C224" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
     <row r="225" spans="2:5" ht="15.75">
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C225" s="1"/>
+      <c r="C225" s="6" t="s">
+        <v>512</v>
+      </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
     <row r="226" spans="2:5" ht="15.75">
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C226" s="1"/>
+      <c r="C226" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
     <row r="227" spans="2:5" ht="15.75">
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C227" s="1"/>
+      <c r="C227" s="6" t="s">
+        <v>514</v>
+      </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
     <row r="228" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C228" s="1"/>
+      <c r="C228" s="7" t="s">
+        <v>515</v>
+      </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
